--- a/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A58411-31D3-4875-A31A-EE65EF83CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB43F2D-EC82-4B97-965C-56149DEEAFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3834FF51-7312-4F52-8494-E37DFA006ADD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7F1D56-0C4E-4190-8ADF-40B107C88CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>13,34%</t>
   </si>
   <si>
@@ -118,33 +286,6 @@
     <t>13,19%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
     <t>46,66%</t>
   </si>
   <si>
@@ -160,9 +301,6 @@
     <t>38,56%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
     <t>44,96%</t>
   </si>
   <si>
@@ -172,30 +310,6 @@
     <t>48,41%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>36,63%</t>
   </si>
   <si>
@@ -223,118 +337,52 @@
     <t>44,27%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>13,04%</t>
@@ -364,33 +412,6 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
     <t>46,92%</t>
   </si>
   <si>
@@ -418,27 +439,6 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
     <t>36,91%</t>
   </si>
   <si>
@@ -466,6 +466,147 @@
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>6,91%</t>
   </si>
   <si>
@@ -493,27 +634,6 @@
     <t>9,26%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
     <t>32,01%</t>
   </si>
   <si>
@@ -538,30 +658,6 @@
     <t>29,19%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>58,3%</t>
   </si>
   <si>
@@ -589,100 +685,52 @@
     <t>61,29%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -712,27 +760,6 @@
     <t>7,77%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>32,94%</t>
   </si>
   <si>
@@ -760,33 +787,6 @@
     <t>36,34%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>57,79%</t>
   </si>
   <si>
@@ -817,6 +817,147 @@
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
     <t>9,36%</t>
   </si>
   <si>
@@ -844,27 +985,6 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>37,33%</t>
   </si>
   <si>
@@ -892,27 +1012,6 @@
     <t>41,83%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>51,25%</t>
   </si>
   <si>
@@ -940,103 +1039,37 @@
     <t>54,14%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>6,21%</t>
@@ -1060,24 +1093,6 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
     <t>36,55%</t>
   </si>
   <si>
@@ -1097,21 +1112,6 @@
   </si>
   <si>
     <t>40,06%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
   </si>
   <si>
     <t>52,82%</t>
@@ -1530,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC77ADC-A363-42CB-913A-8A651242F01A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9765CEE-61CC-4CF6-A143-F311B8B69F52}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1920,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>36994</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1935,34 +1935,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>22240</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>89</v>
-      </c>
-      <c r="N10" s="7">
-        <v>59234</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,49 +1971,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>7965</v>
+        <v>1438</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1320</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2758</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4589</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12554</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2022,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>129365</v>
+        <v>7762</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4764</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12526</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>168</v>
-      </c>
-      <c r="I12" s="7">
-        <v>113421</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>362</v>
-      </c>
-      <c r="N12" s="7">
-        <v>242786</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +2073,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>1363</v>
+        <v>31697</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25387</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7">
+        <v>85</v>
+      </c>
+      <c r="N13" s="7">
+        <v>57083</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3266</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4629</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2124,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>101536</v>
+        <v>25170</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24572</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="7">
+        <v>75</v>
+      </c>
+      <c r="N14" s="7">
+        <v>49741</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="7">
-        <v>177</v>
-      </c>
-      <c r="I14" s="7">
-        <v>119295</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>329</v>
-      </c>
-      <c r="N14" s="7">
-        <v>220832</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,102 +2175,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>416</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>277224</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>390</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>262811</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>806</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>540035</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>7762</v>
+        <v>1363</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3266</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4629</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4764</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12526</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2279,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>1438</v>
+        <v>7965</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4589</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7">
+        <v>12554</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1320</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2758</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2330,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>31697</v>
+        <v>36994</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7">
+        <v>22240</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="7">
+        <v>89</v>
+      </c>
+      <c r="N18" s="7">
+        <v>59234</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25387</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="7">
-        <v>85</v>
-      </c>
-      <c r="N18" s="7">
-        <v>57083</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2381,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>129365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>113421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>242786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2432,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="D20" s="7">
-        <v>25170</v>
+        <v>101536</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>177</v>
+      </c>
+      <c r="I20" s="7">
+        <v>119295</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="7">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7">
-        <v>24572</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>329</v>
+      </c>
+      <c r="N20" s="7">
+        <v>220832</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>75</v>
-      </c>
-      <c r="N20" s="7">
-        <v>49741</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,49 +2483,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>277224</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>390</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>262811</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>806</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>540035</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2536,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>44755</v>
+        <v>1363</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3266</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
-        <v>40</v>
-      </c>
-      <c r="I22" s="7">
-        <v>27004</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4629</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="7">
-        <v>108</v>
-      </c>
-      <c r="N22" s="7">
-        <v>71760</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2593,13 @@
         <v>9403</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2608,13 +2608,13 @@
         <v>5909</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2623,13 +2623,13 @@
         <v>15312</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2638,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7">
-        <v>161061</v>
+        <v>44755</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7">
+        <v>27004</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="7">
-        <v>205</v>
-      </c>
-      <c r="I24" s="7">
-        <v>138807</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>108</v>
+      </c>
+      <c r="N24" s="7">
+        <v>71760</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="7">
-        <v>447</v>
-      </c>
-      <c r="N24" s="7">
-        <v>299869</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,40 +2689,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="D25" s="7">
-        <v>1363</v>
+        <v>161061</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>205</v>
+      </c>
+      <c r="I25" s="7">
+        <v>138807</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3266</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>129</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="N25" s="7">
-        <v>4629</v>
+        <v>299869</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>130</v>
@@ -2749,7 +2749,7 @@
         <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>134</v>
@@ -2797,13 +2797,13 @@
         <v>343289</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>473</v>
@@ -2812,13 +2812,13 @@
         <v>318853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>989</v>
@@ -2827,13 +2827,13 @@
         <v>662142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4BCAA9-DD4F-4FA6-B179-1D32D5F66A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127CE0B4-8BDA-4D3D-BAFA-3BFAFCEF9726}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,49 +3242,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>18312</v>
+        <v>1469</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19275</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1469</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="7">
-        <v>53</v>
-      </c>
-      <c r="N10" s="7">
-        <v>37587</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,49 +3293,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>4894</v>
+        <v>1456</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>8073</v>
+        <v>1456</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,49 +3344,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>84843</v>
+        <v>2104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>81682</v>
+        <v>612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M12" s="7">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>166525</v>
+        <v>2717</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3395,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>2469</v>
+        <v>24247</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>1943</v>
+        <v>25203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>4413</v>
+        <v>49450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3446,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>154511</v>
+        <v>36897</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>46153</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M14" s="7">
+        <v>116</v>
+      </c>
+      <c r="N14" s="7">
+        <v>83050</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="7">
-        <v>205</v>
-      </c>
-      <c r="I14" s="7">
-        <v>143871</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="7">
-        <v>431</v>
-      </c>
-      <c r="N14" s="7">
-        <v>298382</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,102 +3497,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265030</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249950</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>514980</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2469</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>2104</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>612</v>
+        <v>1943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>2717</v>
+        <v>4413</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3601,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>1456</v>
+        <v>4894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>1456</v>
+        <v>8073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3652,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>24247</v>
+        <v>18312</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>19275</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" s="7">
+        <v>53</v>
+      </c>
+      <c r="N18" s="7">
+        <v>37587</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>25203</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M18" s="7">
-        <v>69</v>
-      </c>
-      <c r="N18" s="7">
-        <v>49450</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3703,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D19" s="7">
-        <v>1469</v>
+        <v>84843</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="7">
+        <v>117</v>
+      </c>
+      <c r="I19" s="7">
+        <v>81682</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>244</v>
+      </c>
+      <c r="N19" s="7">
+        <v>166525</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1469</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,10 +3754,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>36897</v>
+        <v>154511</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>206</v>
@@ -3769,10 +3769,10 @@
         <v>208</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="I20" s="7">
-        <v>46153</v>
+        <v>143871</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>209</v>
@@ -3784,10 +3784,10 @@
         <v>211</v>
       </c>
       <c r="M20" s="7">
-        <v>116</v>
+        <v>431</v>
       </c>
       <c r="N20" s="7">
-        <v>83050</v>
+        <v>298382</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>212</v>
@@ -3805,49 +3805,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265030</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>746</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>514980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,10 +3858,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>20417</v>
+        <v>3938</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>215</v>
@@ -3873,10 +3873,10 @@
         <v>217</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>19887</v>
+        <v>1943</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>218</v>
@@ -3888,10 +3888,10 @@
         <v>220</v>
       </c>
       <c r="M22" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>40304</v>
+        <v>5882</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>221</v>
@@ -3918,7 +3918,7 @@
         <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>225</v>
@@ -3948,7 +3948,7 @@
         <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>230</v>
@@ -3960,10 +3960,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>109090</v>
+        <v>20417</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>231</v>
@@ -3975,10 +3975,10 @@
         <v>233</v>
       </c>
       <c r="H24" s="7">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>106885</v>
+        <v>19887</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>234</v>
@@ -3990,10 +3990,10 @@
         <v>236</v>
       </c>
       <c r="M24" s="7">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>215975</v>
+        <v>40304</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>237</v>
@@ -4011,10 +4011,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7">
-        <v>3938</v>
+        <v>109090</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>240</v>
@@ -4026,10 +4026,10 @@
         <v>242</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="I25" s="7">
-        <v>1943</v>
+        <v>106885</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>243</v>
@@ -4041,10 +4041,10 @@
         <v>245</v>
       </c>
       <c r="M25" s="7">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="N25" s="7">
-        <v>5882</v>
+        <v>215975</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>246</v>
@@ -4119,13 +4119,13 @@
         <v>331204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4134,13 +4134,13 @@
         <v>321919</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>939</v>
@@ -4149,13 +4149,13 @@
         <v>653123</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4174,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792FD92-0874-4EC9-86C1-2BAF9A3827BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D6EC60-2836-4DF5-B920-8DB6486ACE08}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4564,49 +4564,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>26178</v>
+        <v>2048</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>628</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2676</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26141</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>52319</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +4615,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>4315</v>
+        <v>763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>778</v>
+        <v>583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>5093</v>
+        <v>1346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +4666,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>104380</v>
+        <v>3389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>103717</v>
+        <v>4929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M12" s="7">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>208097</v>
+        <v>8318</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +4717,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>1425</v>
+        <v>26686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>993</v>
+        <v>30023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>2417</v>
+        <v>56708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +4768,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>143283</v>
+        <v>46133</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="7">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7">
+        <v>55350</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M14" s="7">
+        <v>148</v>
+      </c>
+      <c r="N14" s="7">
+        <v>101483</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" s="7">
-        <v>185</v>
-      </c>
-      <c r="I14" s="7">
-        <v>132786</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M14" s="7">
-        <v>380</v>
-      </c>
-      <c r="N14" s="7">
-        <v>276069</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,102 +4819,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>279581</v>
+        <v>79019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264415</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
-        <v>749</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>543996</v>
+        <v>170532</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3389</v>
+        <v>1425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4929</v>
+        <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>8318</v>
+        <v>2417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4923,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>763</v>
+        <v>4315</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>583</v>
+        <v>778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>1346</v>
+        <v>5093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4974,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>26686</v>
+        <v>26178</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="7">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26141</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M18" s="7">
+        <v>73</v>
+      </c>
+      <c r="N18" s="7">
+        <v>52319</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30023</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M18" s="7">
-        <v>85</v>
-      </c>
-      <c r="N18" s="7">
-        <v>56708</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5025,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7">
-        <v>2048</v>
+        <v>104380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="I19" s="7">
-        <v>628</v>
+        <v>103717</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M19" s="7">
+        <v>286</v>
+      </c>
+      <c r="N19" s="7">
+        <v>208097</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2676</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,40 +5076,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="D20" s="7">
-        <v>46133</v>
+        <v>143283</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>185</v>
+      </c>
+      <c r="I20" s="7">
+        <v>132786</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H20" s="7">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
-        <v>55350</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>329</v>
       </c>
       <c r="M20" s="7">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="N20" s="7">
-        <v>101483</v>
+        <v>276069</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>330</v>
@@ -5127,49 +5127,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <v>79019</v>
+        <v>279581</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264415</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>749</v>
       </c>
       <c r="N21" s="7">
-        <v>170532</v>
+        <v>543996</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,49 +5180,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>29567</v>
+        <v>3473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1621</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="7">
-        <v>46</v>
-      </c>
-      <c r="I22" s="7">
-        <v>31070</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5094</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="M22" s="7">
-        <v>86</v>
-      </c>
-      <c r="N22" s="7">
-        <v>60638</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5237,13 @@
         <v>5078</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5252,13 +5252,13 @@
         <v>1361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5267,13 +5267,13 @@
         <v>6439</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +5282,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7">
-        <v>131066</v>
+        <v>29567</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" s="7">
+        <v>46</v>
+      </c>
+      <c r="I24" s="7">
+        <v>31070</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H24" s="7">
-        <v>192</v>
-      </c>
-      <c r="I24" s="7">
-        <v>133739</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>86</v>
+      </c>
+      <c r="N24" s="7">
+        <v>60638</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M24" s="7">
-        <v>371</v>
-      </c>
-      <c r="N24" s="7">
-        <v>264805</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,46 +5333,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="D25" s="7">
-        <v>3473</v>
+        <v>131066</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>353</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="I25" s="7">
-        <v>1621</v>
+        <v>133739</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M25" s="7">
+        <v>371</v>
+      </c>
+      <c r="N25" s="7">
+        <v>264805</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5094</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>357</v>
@@ -5441,13 +5441,13 @@
         <v>358600</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5456,13 +5456,13 @@
         <v>355928</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1001</v>
@@ -5471,13 +5471,13 @@
         <v>714528</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB43F2D-EC82-4B97-965C-56149DEEAFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7651D0-18F9-4634-B5B3-CFEB020FD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FB7F1D56-0C4E-4190-8ADF-40B107C88CB1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF05A6EC-2C35-4E7F-8B9A-CA1FE7E33E72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="380">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
@@ -67,28 +67,139 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -97,1048 +208,976 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1188,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1245,39 +1284,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1329,7 +1368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1440,13 +1479,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1455,6 +1487,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1519,19 +1558,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9765CEE-61CC-4CF6-A143-F311B8B69F52}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E455776-7417-4B1F-AE48-F769BCA37404}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1922,47 +1981,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,49 +2024,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2069,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +2114,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7">
-        <v>31697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
-      </c>
-      <c r="N13" s="7">
-        <v>57083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2159,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7">
-        <v>25170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
-      </c>
-      <c r="I14" s="7">
-        <v>24572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
-      </c>
-      <c r="N14" s="7">
-        <v>49741</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,102 +2204,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>1363</v>
+        <v>54382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>3266</v>
+        <v>66138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>4629</v>
+        <v>120519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2302,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D17" s="7">
-        <v>7965</v>
+        <v>66819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>4589</v>
+        <v>49706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="N17" s="7">
-        <v>12554</v>
+        <v>116525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2353,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>36994</v>
+        <v>16685</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>22240</v>
+        <v>8020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7">
-        <v>59234</v>
+        <v>24704</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2404,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>129365</v>
+        <v>2133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>113421</v>
+        <v>3052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>242786</v>
+        <v>5185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2455,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>101536</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>119295</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>220832</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,102 +2506,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>416</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>277224</v>
+        <v>140019</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>262811</v>
+        <v>126916</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>806</v>
+        <v>400</v>
       </c>
       <c r="N21" s="7">
-        <v>540035</v>
+        <v>266934</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D22" s="7">
-        <v>1363</v>
+        <v>72324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="I22" s="7">
-        <v>3266</v>
+        <v>77729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="N22" s="7">
-        <v>4629</v>
+        <v>150053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2610,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D23" s="7">
-        <v>9403</v>
+        <v>94242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="I23" s="7">
-        <v>5909</v>
+        <v>89101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="N23" s="7">
-        <v>15312</v>
+        <v>183343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2661,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7">
-        <v>44755</v>
+        <v>28071</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>27004</v>
+        <v>18984</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="N24" s="7">
-        <v>71760</v>
+        <v>47055</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,49 +2712,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>161061</v>
+        <v>7270</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>138807</v>
+        <v>2857</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>447</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>299869</v>
+        <v>10127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,49 +2763,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>126706</v>
+        <v>1363</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>143867</v>
+        <v>3266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>404</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>270573</v>
+        <v>4629</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,55 +2814,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203271</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>283</v>
+      </c>
+      <c r="I27" s="7">
+        <v>191937</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>589</v>
+      </c>
+      <c r="N27" s="7">
+        <v>395208</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>190</v>
+      </c>
+      <c r="D28" s="7">
+        <v>126706</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
+        <v>214</v>
+      </c>
+      <c r="I28" s="7">
+        <v>143867</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="7">
+        <v>404</v>
+      </c>
+      <c r="N28" s="7">
+        <v>270573</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>242</v>
+      </c>
+      <c r="D29" s="7">
+        <v>161061</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
+        <v>205</v>
+      </c>
+      <c r="I29" s="7">
+        <v>138807</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="7">
+        <v>447</v>
+      </c>
+      <c r="N29" s="7">
+        <v>299869</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>68</v>
+      </c>
+      <c r="D30" s="7">
+        <v>44755</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
+        <v>40</v>
+      </c>
+      <c r="I30" s="7">
+        <v>27004</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="7">
+        <v>108</v>
+      </c>
+      <c r="N30" s="7">
+        <v>71760</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9403</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5909</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="7">
+        <v>23</v>
+      </c>
+      <c r="N31" s="7">
+        <v>15312</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3266</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4629</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>516</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>343289</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>318853</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>989</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>662142</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2852,8 +3189,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127CE0B4-8BDA-4D3D-BAFA-3BFAFCEF9726}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9C2C54-FA34-41EE-873A-DF3ABD438A57}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2869,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3242,49 +3579,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,49 +3624,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,49 +3669,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3714,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
-      </c>
-      <c r="N13" s="7">
-        <v>49450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3759,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
-      </c>
-      <c r="I14" s="7">
-        <v>46153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>116</v>
-      </c>
-      <c r="N14" s="7">
-        <v>83050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,102 +3804,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7">
-        <v>2469</v>
+        <v>94481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>1943</v>
+        <v>97415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="N16" s="7">
-        <v>4413</v>
+        <v>191896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3902,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>4894</v>
+        <v>49425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>3179</v>
+        <v>50954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="N17" s="7">
-        <v>8073</v>
+        <v>100379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3953,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>18312</v>
+        <v>7257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>19275</v>
+        <v>6469</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>37587</v>
+        <v>13726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +4004,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>84843</v>
+        <v>2694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>81682</v>
+        <v>675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>166525</v>
+        <v>3369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,49 +4055,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>154511</v>
+        <v>2161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>143871</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>298382</v>
+        <v>2161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,102 +4106,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>224</v>
       </c>
       <c r="D21" s="7">
-        <v>265030</v>
+        <v>156017</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249950</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>746</v>
+        <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>514980</v>
+        <v>311531</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="D22" s="7">
-        <v>3938</v>
+        <v>96927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>1943</v>
+        <v>92608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="N22" s="7">
-        <v>5882</v>
+        <v>189536</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,49 +4210,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7">
-        <v>6351</v>
+        <v>59665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="I23" s="7">
-        <v>3179</v>
+        <v>55931</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="N23" s="7">
-        <v>9530</v>
+        <v>115596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +4261,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>20417</v>
+        <v>13160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>19887</v>
+        <v>13418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M24" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>40304</v>
+        <v>26578</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4312,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>109090</v>
+        <v>3657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="H25" s="7">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>106885</v>
+        <v>2504</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="M25" s="7">
-        <v>313</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>215975</v>
+        <v>6161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4363,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>277</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>191408</v>
+        <v>1778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="H26" s="7">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>190024</v>
+        <v>1943</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>381433</v>
+        <v>3721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,55 +4414,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175187</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341592</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>277</v>
+      </c>
+      <c r="D28" s="7">
+        <v>191408</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="7">
+        <v>270</v>
+      </c>
+      <c r="I28" s="7">
+        <v>190024</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" s="7">
+        <v>547</v>
+      </c>
+      <c r="N28" s="7">
+        <v>381433</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7">
+        <v>109090</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="7">
+        <v>152</v>
+      </c>
+      <c r="I29" s="7">
+        <v>106885</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="7">
+        <v>313</v>
+      </c>
+      <c r="N29" s="7">
+        <v>215975</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20417</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="7">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19887</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M30" s="7">
+        <v>57</v>
+      </c>
+      <c r="N30" s="7">
+        <v>40304</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6351</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3179</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9530</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3938</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1943</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" s="7">
+        <v>9</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5882</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331204</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321919</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>939</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653123</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4174,8 +4789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D6EC60-2836-4DF5-B920-8DB6486ACE08}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C877732A-E039-46EF-80FD-05A388907366}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4191,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4564,49 +5179,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +5224,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +5269,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +5314,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
-      </c>
-      <c r="N13" s="7">
-        <v>56708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +5359,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7">
-        <v>46133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>82</v>
-      </c>
-      <c r="I14" s="7">
-        <v>55350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>148</v>
-      </c>
-      <c r="N14" s="7">
-        <v>101483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,102 +5404,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D16" s="7">
-        <v>1425</v>
+        <v>106343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>993</v>
+        <v>105964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="N16" s="7">
-        <v>2417</v>
+        <v>212307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +5502,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>4315</v>
+        <v>63571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>778</v>
+        <v>69021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="N17" s="7">
-        <v>5093</v>
+        <v>132592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +5553,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>26178</v>
+        <v>10989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>26141</v>
+        <v>9787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>52319</v>
+        <v>20776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5604,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>104380</v>
+        <v>1553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>103717</v>
+        <v>583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
-        <v>286</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>208097</v>
+        <v>2136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5655,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>143283</v>
+        <v>2747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>132786</v>
+        <v>628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>276069</v>
+        <v>3376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,102 +5706,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>279581</v>
+        <v>185204</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264415</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>749</v>
+        <v>525</v>
       </c>
       <c r="N21" s="7">
-        <v>543996</v>
+        <v>371187</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>3473</v>
+        <v>83072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="I22" s="7">
-        <v>1621</v>
+        <v>82173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="N22" s="7">
-        <v>5094</v>
+        <v>165245</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,49 +5810,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7">
-        <v>5078</v>
+        <v>67495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="I23" s="7">
-        <v>1361</v>
+        <v>64718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="N23" s="7">
-        <v>6439</v>
+        <v>132213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +5861,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>29567</v>
+        <v>18579</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>31070</v>
+        <v>21283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="N24" s="7">
-        <v>60638</v>
+        <v>39862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +5912,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>131066</v>
+        <v>3525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>133739</v>
+        <v>778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>371</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>264805</v>
+        <v>4303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,49 +5963,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>189416</v>
+        <v>725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>188136</v>
+        <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
-        <v>528</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>377552</v>
+        <v>1718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,55 +6014,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173396</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>169946</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343341</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>261</v>
+      </c>
+      <c r="D28" s="7">
+        <v>189416</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" s="7">
+        <v>267</v>
+      </c>
+      <c r="I28" s="7">
+        <v>188136</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M28" s="7">
+        <v>528</v>
+      </c>
+      <c r="N28" s="7">
+        <v>377552</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>179</v>
+      </c>
+      <c r="D29" s="7">
+        <v>131066</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="7">
+        <v>192</v>
+      </c>
+      <c r="I29" s="7">
+        <v>133739</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M29" s="7">
+        <v>371</v>
+      </c>
+      <c r="N29" s="7">
+        <v>264805</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29567</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="7">
+        <v>46</v>
+      </c>
+      <c r="I30" s="7">
+        <v>31070</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M30" s="7">
+        <v>86</v>
+      </c>
+      <c r="N30" s="7">
+        <v>60638</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5078</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1361</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6439</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3473</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1621</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5094</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>358600</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355928</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1001</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>714528</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>55</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7651D0-18F9-4634-B5B3-CFEB020FD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB635487-3464-4B31-9720-A275A1FB4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF05A6EC-2C35-4E7F-8B9A-CA1FE7E33E72}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E49FFA25-7168-4A59-84EC-257B6BE8FBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="374">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
@@ -97,82 +97,82 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>39,16%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -181,1003 +181,985 @@
     <t>0,44%</t>
   </si>
   <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E455776-7417-4B1F-AE48-F769BCA37404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68EFBFF-FB9C-41EE-A727-24EB89C4A0A5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2787,10 +2769,10 @@
         <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2799,13 +2781,13 @@
         <v>4629</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2855,13 @@
         <v>126706</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>214</v>
@@ -2888,13 +2870,13 @@
         <v>143867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -2903,7 +2885,7 @@
         <v>270573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>111</v>
@@ -3077,13 +3059,13 @@
         <v>1363</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -3092,10 +3074,10 @@
         <v>3266</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>143</v>
@@ -3189,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9C2C54-FA34-41EE-873A-DF3ABD438A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC3EBA-1CCC-47C5-800B-EE88049954D5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,10 +3995,10 @@
         <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4025,7 +4007,7 @@
         <v>675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>54</v>
@@ -4043,7 +4025,7 @@
         <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>181</v>
@@ -4061,13 +4043,13 @@
         <v>2161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4082,7 +4064,7 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4091,13 +4073,13 @@
         <v>2161</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4147,13 @@
         <v>96927</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4180,13 +4162,13 @@
         <v>92608</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -4195,13 +4177,13 @@
         <v>189536</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4198,13 @@
         <v>59665</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H23" s="7">
         <v>79</v>
@@ -4231,13 +4213,13 @@
         <v>55931</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>168</v>
@@ -4246,13 +4228,13 @@
         <v>115596</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4249,13 @@
         <v>13160</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -4282,13 +4264,13 @@
         <v>13418</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -4297,13 +4279,13 @@
         <v>26578</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4300,13 @@
         <v>3657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4333,13 +4315,13 @@
         <v>2504</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -4348,13 +4330,13 @@
         <v>6161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4351,13 @@
         <v>1778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4384,13 +4366,13 @@
         <v>1943</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4399,13 +4381,13 @@
         <v>3721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4455,13 @@
         <v>191408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H28" s="7">
         <v>270</v>
@@ -4488,13 +4470,13 @@
         <v>190024</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M28" s="7">
         <v>547</v>
@@ -4503,13 +4485,13 @@
         <v>381433</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4506,13 @@
         <v>109090</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>152</v>
@@ -4539,13 +4521,13 @@
         <v>106885</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -4554,13 +4536,13 @@
         <v>215975</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4557,13 @@
         <v>20417</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -4590,13 +4572,13 @@
         <v>19887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>57</v>
@@ -4605,13 +4587,13 @@
         <v>40304</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4608,13 @@
         <v>6351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4641,13 +4623,13 @@
         <v>3179</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4656,13 +4638,13 @@
         <v>9530</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4659,13 @@
         <v>3938</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4692,13 +4674,13 @@
         <v>1943</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -4707,13 +4689,13 @@
         <v>5882</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C877732A-E039-46EF-80FD-05A388907366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0389DACE-0DB1-4455-AF34-10E73F810F59}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4806,7 +4788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5439,13 @@
         <v>106343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -5472,13 +5454,13 @@
         <v>105964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -5487,13 +5469,13 @@
         <v>212307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5490,13 @@
         <v>63571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -5523,13 +5505,13 @@
         <v>69021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -5538,13 +5520,13 @@
         <v>132592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5541,13 @@
         <v>10989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5574,13 +5556,13 @@
         <v>9787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -5589,13 +5571,13 @@
         <v>20776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5592,13 @@
         <v>1553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5625,13 +5607,13 @@
         <v>583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5640,13 +5622,13 @@
         <v>2136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5643,13 @@
         <v>2747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5676,13 +5658,13 @@
         <v>628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5694,10 +5676,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5747,13 @@
         <v>83072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -5780,13 +5762,13 @@
         <v>82173</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>228</v>
@@ -5795,13 +5777,13 @@
         <v>165245</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5798,13 @@
         <v>67495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>94</v>
@@ -5831,13 +5813,13 @@
         <v>64718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -5846,13 +5828,13 @@
         <v>132213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5849,13 @@
         <v>18579</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -5882,13 +5864,13 @@
         <v>21283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5897,13 +5879,13 @@
         <v>39862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5900,13 @@
         <v>3525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5933,13 +5915,13 @@
         <v>778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5948,13 +5930,13 @@
         <v>4303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5951,13 @@
         <v>725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5984,13 +5966,13 @@
         <v>993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5999,13 +5981,13 @@
         <v>1718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6055,13 @@
         <v>189416</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="H28" s="7">
         <v>267</v>
@@ -6088,13 +6070,13 @@
         <v>188136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M28" s="7">
         <v>528</v>
@@ -6103,13 +6085,13 @@
         <v>377552</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6106,13 @@
         <v>131066</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H29" s="7">
         <v>192</v>
@@ -6139,13 +6121,13 @@
         <v>133739</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -6154,13 +6136,13 @@
         <v>264805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6157,13 @@
         <v>29567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -6190,13 +6172,13 @@
         <v>31070</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -6205,13 +6187,13 @@
         <v>60638</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6208,13 @@
         <v>5078</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -6241,13 +6223,13 @@
         <v>1361</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6256,13 +6238,13 @@
         <v>6439</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>58</v>
+        <v>335</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6259,13 @@
         <v>3473</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>52</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6292,13 +6274,13 @@
         <v>1621</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6307,13 +6289,13 @@
         <v>5094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB635487-3464-4B31-9720-A275A1FB4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217313F7-3DBB-4F54-BCE3-5419FD7776E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E49FFA25-7168-4A59-84EC-257B6BE8FBD7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6BC61955-A84A-4875-ADA6-B467B3798414}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="375">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,85 +94,94 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -181,985 +190,979 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
     <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68EFBFF-FB9C-41EE-A727-24EB89C4A0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1369F8-E7B5-4451-AC41-F7C68B611D40}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,10 +2236,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
-        <v>54382</v>
+        <v>66138</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2248,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>66138</v>
+        <v>54382</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2284,10 +2287,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7">
-        <v>66819</v>
+        <v>49706</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2299,10 +2302,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>49706</v>
+        <v>66819</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2335,10 +2338,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>16685</v>
+        <v>8020</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2350,10 +2353,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>8020</v>
+        <v>16685</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2386,10 +2389,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>2133</v>
+        <v>3052</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2401,10 +2404,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>3052</v>
+        <v>2133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2464,7 +2467,7 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2479,7 +2482,7 @@
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,34 +2491,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126916</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140019</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126916</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -2524,51 +2527,51 @@
         <v>266934</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22" s="7">
+        <v>77729</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7">
         <v>109</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>72324</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77729</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>224</v>
@@ -2577,13 +2580,13 @@
         <v>150053</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,34 +2595,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>131</v>
+      </c>
+      <c r="D23" s="7">
+        <v>89101</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
         <v>141</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>94242</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="7">
-        <v>131</v>
-      </c>
-      <c r="I23" s="7">
-        <v>89101</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>272</v>
@@ -2628,13 +2631,13 @@
         <v>183343</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,34 +2646,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18984</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7">
         <v>43</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>28071</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18984</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -2679,13 +2682,13 @@
         <v>47055</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,34 +2697,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
+        <v>2857</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
         <v>7270</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2857</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2730,13 +2733,13 @@
         <v>10127</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,34 +2748,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>1363</v>
+        <v>3266</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>3266</v>
+        <v>1363</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2781,13 +2784,13 @@
         <v>4629</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,34 +2799,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>283</v>
+      </c>
+      <c r="D27" s="7">
+        <v>191937</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203271</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>283</v>
-      </c>
-      <c r="I27" s="7">
-        <v>191937</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>589</v>
@@ -2832,13 +2835,13 @@
         <v>395208</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,34 +2852,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>214</v>
+      </c>
+      <c r="D28" s="7">
+        <v>143867</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
         <v>190</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>126706</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="7">
-        <v>214</v>
-      </c>
-      <c r="I28" s="7">
-        <v>143867</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -2885,7 +2888,7 @@
         <v>270573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>111</v>
@@ -2900,10 +2903,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D29" s="7">
-        <v>161061</v>
+        <v>138807</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>113</v>
@@ -2915,10 +2918,10 @@
         <v>115</v>
       </c>
       <c r="H29" s="7">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="I29" s="7">
-        <v>138807</v>
+        <v>161061</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>116</v>
@@ -2951,10 +2954,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>44755</v>
+        <v>27004</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>122</v>
@@ -2966,10 +2969,10 @@
         <v>124</v>
       </c>
       <c r="H30" s="7">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I30" s="7">
-        <v>27004</v>
+        <v>44755</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>125</v>
@@ -3002,10 +3005,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>9403</v>
+        <v>5909</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>131</v>
@@ -3017,10 +3020,10 @@
         <v>133</v>
       </c>
       <c r="H31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I31" s="7">
-        <v>5909</v>
+        <v>9403</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>134</v>
@@ -3053,31 +3056,31 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3266</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1363</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3266</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>143</v>
@@ -3095,7 +3098,7 @@
         <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,34 +3107,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>473</v>
+      </c>
+      <c r="D33" s="7">
+        <v>318853</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>516</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>343289</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>473</v>
-      </c>
-      <c r="I33" s="7">
-        <v>318853</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>989</v>
@@ -3140,18 +3143,18 @@
         <v>662142</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC3EBA-1CCC-47C5-800B-EE88049954D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CBD515-60DC-406E-A6B5-42490490C18E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3833,34 +3836,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7">
+        <v>97415</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="7">
         <v>135</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>94481</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="7">
-        <v>138</v>
-      </c>
-      <c r="I16" s="7">
-        <v>97415</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -3869,13 +3872,13 @@
         <v>191896</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3887,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50954</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="7">
         <v>72</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>49425</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="7">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50954</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -3920,13 +3923,13 @@
         <v>100379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,34 +3938,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6469</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7257</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6469</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3971,13 +3974,13 @@
         <v>13726</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +3989,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>675</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2694</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>675</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4022,13 +4025,13 @@
         <v>3369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4040,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2161</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4073,13 +4076,13 @@
         <v>2161</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,34 +4091,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>224</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156017</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -4124,51 +4127,51 @@
         <v>311531</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>132</v>
+      </c>
+      <c r="D22" s="7">
+        <v>92608</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="7">
         <v>142</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>96927</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="7">
-        <v>132</v>
-      </c>
-      <c r="I22" s="7">
-        <v>92608</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -4177,13 +4180,13 @@
         <v>189536</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4195,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7">
+        <v>55931</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="7">
         <v>89</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>59665</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="7">
-        <v>79</v>
-      </c>
-      <c r="I23" s="7">
-        <v>55931</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>168</v>
@@ -4228,13 +4231,13 @@
         <v>115596</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,31 +4249,31 @@
         <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>13160</v>
+        <v>13418</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>13418</v>
+        <v>13160</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -4279,13 +4282,13 @@
         <v>26578</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,25 +4297,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>3657</v>
+        <v>2504</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>2504</v>
+        <v>3657</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>215</v>
@@ -4348,31 +4351,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1778</v>
+        <v>1943</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>1943</v>
+        <v>1778</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4381,13 +4384,13 @@
         <v>3721</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,34 +4399,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166404</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175187</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166404</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>494</v>
@@ -4432,13 +4435,13 @@
         <v>341592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,34 +4452,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>270</v>
+      </c>
+      <c r="D28" s="7">
+        <v>190024</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="7">
         <v>277</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>191408</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="7">
-        <v>270</v>
-      </c>
-      <c r="I28" s="7">
-        <v>190024</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M28" s="7">
         <v>547</v>
@@ -4485,13 +4488,13 @@
         <v>381433</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,34 +4503,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>152</v>
+      </c>
+      <c r="D29" s="7">
+        <v>106885</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="7">
         <v>161</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>109090</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H29" s="7">
-        <v>152</v>
-      </c>
-      <c r="I29" s="7">
-        <v>106885</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>313</v>
@@ -4536,13 +4539,13 @@
         <v>215975</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4554,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19887</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" s="7">
         <v>29</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>20417</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19887</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M30" s="7">
         <v>57</v>
@@ -4587,13 +4590,13 @@
         <v>40304</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,28 +4605,28 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3179</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6351</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3179</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>257</v>
@@ -4644,7 +4647,7 @@
         <v>260</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,34 +4656,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>3938</v>
+        <v>1943</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>261</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>1943</v>
+        <v>3938</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -4689,13 +4692,13 @@
         <v>5882</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,34 +4707,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321919</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331204</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321919</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>939</v>
@@ -4740,18 +4743,18 @@
         <v>653123</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0389DACE-0DB1-4455-AF34-10E73F810F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28838095-E648-4103-AE58-6E4BC1695480}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4788,7 +4791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,34 +5436,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>105964</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="7">
         <v>148</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>106343</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="7">
-        <v>152</v>
-      </c>
-      <c r="I16" s="7">
-        <v>105964</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -5469,13 +5472,13 @@
         <v>212307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,34 +5487,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>98</v>
+      </c>
+      <c r="D17" s="7">
+        <v>69021</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="7">
         <v>89</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>63571</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="7">
-        <v>98</v>
-      </c>
-      <c r="I17" s="7">
-        <v>69021</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -5520,13 +5523,13 @@
         <v>132592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,31 +5541,31 @@
         <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>10989</v>
+        <v>9787</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>9787</v>
+        <v>10989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -5571,13 +5574,13 @@
         <v>20776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5589,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1553</v>
+        <v>583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>583</v>
+        <v>1553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5622,13 +5625,13 @@
         <v>2136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,34 +5640,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>628</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2747</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>628</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5673,13 +5676,13 @@
         <v>3376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,34 +5691,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>258</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185204</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>525</v>
@@ -5724,51 +5727,51 @@
         <v>371187</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22" s="7">
+        <v>82173</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="7">
         <v>113</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>83072</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>82173</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>228</v>
@@ -5777,13 +5780,13 @@
         <v>165245</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,34 +5795,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>94</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64718</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="7">
         <v>90</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>67495</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="7">
-        <v>94</v>
-      </c>
-      <c r="I23" s="7">
-        <v>64718</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -5828,13 +5831,13 @@
         <v>132213</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5846,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21283</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>18579</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="7">
-        <v>31</v>
-      </c>
-      <c r="I24" s="7">
-        <v>21283</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -5879,13 +5882,13 @@
         <v>39862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,34 +5897,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>778</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3525</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>778</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5930,13 +5933,13 @@
         <v>4303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,31 +5951,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>725</v>
+        <v>993</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>993</v>
+        <v>725</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5981,13 +5984,13 @@
         <v>1718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,34 +5999,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169946</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173396</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>169946</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -6032,13 +6035,13 @@
         <v>343341</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,34 +6052,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>267</v>
+      </c>
+      <c r="D28" s="7">
+        <v>188136</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="7">
         <v>261</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>189416</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H28" s="7">
-        <v>267</v>
-      </c>
-      <c r="I28" s="7">
-        <v>188136</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M28" s="7">
         <v>528</v>
@@ -6085,13 +6088,13 @@
         <v>377552</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,34 +6103,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>192</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133739</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="7">
         <v>179</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>131066</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H29" s="7">
-        <v>192</v>
-      </c>
-      <c r="I29" s="7">
-        <v>133739</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -6136,13 +6139,13 @@
         <v>264805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6154,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>31070</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="7">
         <v>40</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>29567</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H30" s="7">
-        <v>46</v>
-      </c>
-      <c r="I30" s="7">
-        <v>31070</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -6187,13 +6190,13 @@
         <v>60638</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6205,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5078</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1361</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>54</v>
+        <v>370</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6238,13 +6241,13 @@
         <v>6439</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>335</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,34 +6256,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1621</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3473</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1621</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6289,13 +6292,13 @@
         <v>5094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,34 +6307,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355928</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>358600</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355928</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>1001</v>
@@ -6340,18 +6343,18 @@
         <v>714528</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
